--- a/sofaplayer/Bundesliga/FC Augsburg_stats.xlsx
+++ b/sofaplayer/Bundesliga/FC Augsburg_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>111483</v>
       </c>
       <c r="E3" t="n">
-        <v>7.02</v>
+        <v>6.95</v>
       </c>
       <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
       <c r="H3" t="n">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,13 +1409,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8983</v>
+        <v>0.9098000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>161.5</v>
+        <v>191</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.222222222222</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0401438</v>
+        <v>0.0685221</v>
       </c>
       <c r="AB3" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,52 +1469,52 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>49.180327868852</v>
+        <v>49.350649350649</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
         <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -1535,25 +1535,25 @@
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>44.067796610169</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="n">
-        <v>54.545454545455</v>
+        <v>56.521739130435</v>
       </c>
       <c r="BE3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BF3" t="n">
-        <v>37.837837837838</v>
+        <v>39.53488372093</v>
       </c>
       <c r="BG3" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="BH3" t="n">
         <v>2</v>
@@ -1583,22 +1583,22 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>35.1</v>
+        <v>41.7</v>
       </c>
       <c r="BR3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
       </c>
       <c r="BT3" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>7</v>
       </c>
       <c r="CA3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB3" t="n">
         <v>3</v>
       </c>
       <c r="CC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD3" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         <v>3</v>
       </c>
       <c r="CU3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CV3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA3" t="n">
         <v>3</v>
       </c>
       <c r="DB3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="DG3" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
         <v>2587454</v>
@@ -1747,16 +1747,16 @@
         <v>1215904</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,82 +1765,82 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1801</v>
+        <v>0.8831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0224155</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.0125736</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>7</v>
       </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>5</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>1</v>
@@ -1885,155 +1885,155 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ4" t="n">
         <v>100</v>
       </c>
       <c r="BA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>85.71428571428601</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>4</v>
       </c>
-      <c r="BB4" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
         <v>4</v>
       </c>
-      <c r="BD4" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV4" t="n">
         <v>3</v>
       </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
       <c r="CW4" t="n">
         <v>0</v>
       </c>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DG4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,52 +2103,52 @@
         <v>822877</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8111111111111</v>
+        <v>6.8157894736842</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>1262</v>
+        <v>1352</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8574</v>
+        <v>3.7823</v>
       </c>
       <c r="L5" t="n">
-        <v>631</v>
+        <v>450.66666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>4.7619047619048</v>
+        <v>6.5217391304348</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
@@ -2169,61 +2169,61 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.84243251</v>
+        <v>1.90951691</v>
       </c>
       <c r="AB5" t="n">
-        <v>740</v>
+        <v>821</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="AF5" t="n">
-        <v>85.135135135135</v>
+        <v>85.02994011976</v>
       </c>
       <c r="AG5" t="n">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AI5" t="n">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AK5" t="n">
         <v>3</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.272727272727</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AM5" t="n">
         <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>28.125</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -2232,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2241,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>48.888888888889</v>
+        <v>47.916666666667</v>
       </c>
       <c r="BA5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BB5" t="n">
-        <v>46.632124352332</v>
+        <v>46.79802955665</v>
       </c>
       <c r="BC5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BD5" t="n">
-        <v>49.350649350649</v>
+        <v>49.382716049383</v>
       </c>
       <c r="BE5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF5" t="n">
-        <v>35.897435897436</v>
+        <v>36.585365853659</v>
       </c>
       <c r="BG5" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="BH5" t="n">
         <v>17</v>
       </c>
       <c r="BI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BJ5" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO5" t="n">
         <v>27</v>
@@ -2295,25 +2295,25 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>122.6</v>
+        <v>129.5</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT5" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>2</v>
       </c>
       <c r="BZ5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CA5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CB5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CC5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CD5" t="n">
         <v>7</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CT5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CU5" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="CV5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DA5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB5" t="n">
-        <v>63.636363636364</v>
+        <v>65.217391304348</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="DG5" t="n">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,106 +2815,106 @@
         <v>796206</v>
       </c>
       <c r="E7" t="n">
-        <v>6.85625</v>
+        <v>6.8647058823529</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1172</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1172</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.32153121</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>753</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="n">
         <v>12</v>
       </c>
-      <c r="H7" t="n">
-        <v>1099</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1099</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.17103721</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>710</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
       <c r="AE7" t="n">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="AF7" t="n">
-        <v>81.52380952381</v>
+        <v>81.834532374101</v>
       </c>
       <c r="AG7" t="n">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="AH7" t="n">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AI7" t="n">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>54.285714285714</v>
+        <v>54.054054054054</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
@@ -2926,13 +2926,13 @@
         <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
         <v>6</v>
       </c>
       <c r="AR7" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AS7" t="n">
         <v>12</v>
@@ -2944,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -2953,37 +2953,37 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="BA7" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BB7" t="n">
+        <v>52.727272727273</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD7" t="n">
         <v>52.941176470588</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>52.564102564103</v>
       </c>
       <c r="BE7" t="n">
         <v>13</v>
       </c>
       <c r="BF7" t="n">
-        <v>54.166666666667</v>
+        <v>52</v>
       </c>
       <c r="BG7" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BH7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ7" t="n">
         <v>1</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>109.7</v>
+        <v>116.7</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>4</v>
       </c>
       <c r="CA7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC7" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CD7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CS7" t="n">
         <v>10</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>8</v>
       </c>
       <c r="CT7" t="n">
         <v>5</v>
       </c>
       <c r="CU7" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="CV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="DA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="DB7" t="n">
-        <v>76</v>
+        <v>77.777777777778</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="DG7" t="n">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3174,13 +3174,13 @@
         <v>6.6894736842105</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
         <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>2.7384</v>
       </c>
       <c r="L8" t="n">
-        <v>445.33333333333</v>
+        <v>445.66666666667</v>
       </c>
       <c r="M8" t="n">
         <v>26</v>
@@ -3291,7 +3291,7 @@
         <v>50</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -3318,13 +3318,13 @@
         <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>35.087719298246</v>
+        <v>34.682080924855</v>
       </c>
       <c r="BC8" t="n">
         <v>49</v>
       </c>
       <c r="BD8" t="n">
-        <v>37.692307692308</v>
+        <v>37.121212121212</v>
       </c>
       <c r="BE8" t="n">
         <v>11</v>
@@ -3336,7 +3336,7 @@
         <v>251</v>
       </c>
       <c r="BH8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI8" t="n">
         <v>20</v>
@@ -3453,7 +3453,7 @@
         <v>63</v>
       </c>
       <c r="CU8" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CV8" t="n">
         <v>30</v>
@@ -3527,16 +3527,16 @@
         <v>354878</v>
       </c>
       <c r="E9" t="n">
-        <v>7.00625</v>
+        <v>6.9882352941176</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
         <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1132</v>
+        <v>1149</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3548,7 +3548,7 @@
         <v>0.9368</v>
       </c>
       <c r="L9" t="n">
-        <v>566</v>
+        <v>574.5</v>
       </c>
       <c r="M9" t="n">
         <v>7</v>
@@ -3593,34 +3593,34 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.50253234</v>
+        <v>2.51344284</v>
       </c>
       <c r="AB9" t="n">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AF9" t="n">
-        <v>70.379746835443</v>
+        <v>71.111111111111</v>
       </c>
       <c r="AG9" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AH9" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AJ9" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -3644,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AS9" t="n">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>50</v>
       </c>
       <c r="BB9" t="n">
-        <v>57.471264367816</v>
+        <v>56.818181818182</v>
       </c>
       <c r="BC9" t="n">
         <v>42</v>
@@ -3686,7 +3686,7 @@
         <v>8</v>
       </c>
       <c r="BF9" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BG9" t="n">
         <v>210</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>112.1</v>
+        <v>118.8</v>
       </c>
       <c r="BR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS9" t="n">
         <v>5</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CS9" t="n">
         <v>26</v>
@@ -3809,10 +3809,10 @@
         <v>52</v>
       </c>
       <c r="CU9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CV9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="DG9" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ9" t="n">
         <v>2163316</v>
@@ -3883,16 +3883,16 @@
         <v>1390682</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6666666666667</v>
+        <v>6.6421052631579</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>1031</v>
+        <v>1120</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3901,13 +3901,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6235</v>
+        <v>2.8851</v>
       </c>
       <c r="L10" t="n">
-        <v>515.5</v>
+        <v>560</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" t="n">
         <v>12</v>
@@ -3916,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>6.6666666666667</v>
+        <v>6.0606060606061</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,40 +3949,40 @@
         <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.87056443</v>
+        <v>1.91314793</v>
       </c>
       <c r="AB10" t="n">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AF10" t="n">
-        <v>81.17283950617301</v>
+        <v>81.0888252149</v>
       </c>
       <c r="AG10" t="n">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AH10" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AI10" t="n">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="n">
         <v>4</v>
       </c>
       <c r="AL10" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -3994,13 +3994,13 @@
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
         <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AS10" t="n">
         <v>8</v>
@@ -4009,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -4021,34 +4021,34 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>40.740740740741</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA10" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BB10" t="n">
-        <v>31.578947368421</v>
+        <v>31.034482758621</v>
       </c>
       <c r="BC10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BD10" t="n">
-        <v>34.48275862069</v>
+        <v>35.106382978723</v>
       </c>
       <c r="BE10" t="n">
         <v>12</v>
       </c>
       <c r="BF10" t="n">
-        <v>26.086956521739</v>
+        <v>23.529411764706</v>
       </c>
       <c r="BG10" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="BH10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BI10" t="n">
         <v>14</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" t="n">
         <v>24</v>
@@ -4075,22 +4075,22 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>120</v>
+        <v>126.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS10" t="n">
         <v>5</v>
       </c>
       <c r="BT10" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4102,16 +4102,16 @@
         <v>1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CB10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CC10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD10" t="n">
         <v>3</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CS10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CT10" t="n">
         <v>50</v>
       </c>
       <c r="CU10" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="CV10" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DA10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DB10" t="n">
-        <v>60</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="DG10" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>927340</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8857142857143</v>
+        <v>6.9</v>
       </c>
       <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
         <v>21</v>
       </c>
-      <c r="G11" t="n">
-        <v>20</v>
-      </c>
       <c r="H11" t="n">
-        <v>1708</v>
+        <v>1798</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>1.0427</v>
       </c>
       <c r="L11" t="n">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c r="M11" t="n">
         <v>14</v>
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.16531241</v>
+        <v>1.19367581</v>
       </c>
       <c r="AB11" t="n">
-        <v>1104</v>
+        <v>1160</v>
       </c>
       <c r="AC11" t="n">
         <v>3</v>
@@ -4317,28 +4317,28 @@
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="AF11" t="n">
-        <v>85.908529048208</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG11" t="n">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="AH11" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AI11" t="n">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="AJ11" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>39.130434782609</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>1</v>
@@ -4347,22 +4347,22 @@
         <v>7.6923076923077</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AU11" t="n">
         <v>4</v>
@@ -4377,22 +4377,22 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>56.25</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BA11" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BB11" t="n">
-        <v>54.777070063694</v>
+        <v>55.625</v>
       </c>
       <c r="BC11" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BD11" t="n">
-        <v>56.451612903226</v>
+        <v>57.48031496063</v>
       </c>
       <c r="BE11" t="n">
         <v>16</v>
@@ -4401,7 +4401,7 @@
         <v>48.484848484848</v>
       </c>
       <c r="BG11" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="BH11" t="n">
         <v>15</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO11" t="n">
         <v>39</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>144.6</v>
+        <v>151.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS11" t="n">
         <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>17</v>
       </c>
       <c r="CC11" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CD11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="CS11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CT11" t="n">
         <v>13</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="DA11" t="n">
         <v>15</v>
       </c>
       <c r="DB11" t="n">
-        <v>45.454545454545</v>
+        <v>44.117647058824</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="DG11" t="n">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>254119</v>
       </c>
       <c r="E12" t="n">
-        <v>6.56875</v>
+        <v>6.5705882352941</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0.8355</v>
       </c>
       <c r="L12" t="n">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="M12" t="n">
         <v>9</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.63037727</v>
+        <v>0.63751433</v>
       </c>
       <c r="AB12" t="n">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -4673,22 +4673,22 @@
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AF12" t="n">
-        <v>67.222222222222</v>
+        <v>66.83937823834199</v>
       </c>
       <c r="AG12" t="n">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AH12" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AI12" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
@@ -4703,61 +4703,61 @@
         <v>25</v>
       </c>
       <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
         <v>8</v>
       </c>
-      <c r="AP12" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
       </c>
       <c r="AT12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="BC12" t="n">
         <v>11</v>
       </c>
-      <c r="AU12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>38.235294117647</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>10</v>
-      </c>
       <c r="BD12" t="n">
-        <v>35.714285714286</v>
+        <v>35.483870967742</v>
       </c>
       <c r="BE12" t="n">
         <v>3</v>
       </c>
       <c r="BF12" t="n">
-        <v>50</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG12" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="BH12" t="n">
         <v>5</v>
@@ -4787,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>105.1</v>
+        <v>111.7</v>
       </c>
       <c r="BR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4871,16 +4871,16 @@
         <v>7</v>
       </c>
       <c r="CS12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CT12" t="n">
         <v>24</v>
       </c>
       <c r="CU12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CV12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         <v>22</v>
       </c>
       <c r="DA12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB12" t="n">
-        <v>57.142857142857</v>
+        <v>62.5</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="DG12" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>842188</v>
       </c>
       <c r="E13" t="n">
-        <v>6.6055555555556</v>
+        <v>6.6</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
         <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0.3744</v>
       </c>
       <c r="L13" t="n">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="M13" t="n">
         <v>9</v>
@@ -5017,40 +5017,40 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.04932413</v>
+        <v>1.08466813</v>
       </c>
       <c r="AB13" t="n">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AF13" t="n">
-        <v>77.286135693215</v>
+        <v>77.464788732394</v>
       </c>
       <c r="AG13" t="n">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AH13" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AJ13" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>27.027027027027</v>
+        <v>28.205128205128</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5065,10 +5065,10 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS13" t="n">
         <v>10</v>
@@ -5092,28 +5092,28 @@
         <v>4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA13" t="n">
         <v>43</v>
       </c>
       <c r="BB13" t="n">
-        <v>45.744680851064</v>
+        <v>44.329896907216</v>
       </c>
       <c r="BC13" t="n">
         <v>31</v>
       </c>
       <c r="BD13" t="n">
-        <v>44.285714285714</v>
+        <v>43.055555555556</v>
       </c>
       <c r="BE13" t="n">
         <v>12</v>
       </c>
       <c r="BF13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BG13" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BH13" t="n">
         <v>13</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>118.9</v>
+        <v>125.4</v>
       </c>
       <c r="BR13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>4</v>
       </c>
       <c r="CB13" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD13" t="n">
         <v>15</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>40</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>14</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5224,19 +5224,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT13" t="n">
         <v>12</v>
       </c>
       <c r="CU13" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="DA13" t="n">
         <v>7</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="DG13" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ13" t="n">
         <v>2163290</v>
@@ -5307,16 +5307,16 @@
         <v>1129365</v>
       </c>
       <c r="E14" t="n">
-        <v>6.69375</v>
+        <v>6.6941176470588</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>948</v>
+        <v>1007</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>2.7897</v>
       </c>
       <c r="L14" t="n">
-        <v>474</v>
+        <v>503.5</v>
       </c>
       <c r="M14" t="n">
         <v>21</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.16385741</v>
+        <v>1.17824541</v>
       </c>
       <c r="AB14" t="n">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="AC14" t="n">
         <v>2</v>
@@ -5385,25 +5385,25 @@
         <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AF14" t="n">
-        <v>73.646209386282</v>
+        <v>74.41860465116299</v>
       </c>
       <c r="AG14" t="n">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AI14" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AJ14" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>50</v>
@@ -5412,19 +5412,19 @@
         <v>3</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.666666666667</v>
+        <v>15.789473684211</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AS14" t="n">
         <v>9</v>
@@ -5445,34 +5445,34 @@
         <v>1</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>53.333333333333</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BA14" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BB14" t="n">
-        <v>48.214285714286</v>
+        <v>47.899159663866</v>
       </c>
       <c r="BC14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BD14" t="n">
-        <v>47.619047619048</v>
+        <v>47.761194029851</v>
       </c>
       <c r="BE14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BF14" t="n">
-        <v>48.979591836735</v>
+        <v>48.076923076923</v>
       </c>
       <c r="BG14" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="BH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI14" t="n">
         <v>8</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>107.1</v>
+        <v>113.8</v>
       </c>
       <c r="BR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>10</v>
       </c>
       <c r="CC14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CD14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5583,34 +5583,34 @@
         <v>16</v>
       </c>
       <c r="CS14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CT14" t="n">
+        <v>19</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>62</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>27</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>18</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>58</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>25</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>16</v>
       </c>
       <c r="DA14" t="n">
         <v>8</v>
       </c>
       <c r="DB14" t="n">
-        <v>57.142857142857</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="DG14" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6017,40 +6017,40 @@
         <v>860461</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7857142857143</v>
+        <v>6.7772727272727</v>
       </c>
       <c r="F16" t="n">
+        <v>22</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1815</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.1493</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1815</v>
+      </c>
+      <c r="M16" t="n">
         <v>21</v>
       </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1742</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.1181</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1742</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20</v>
-      </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4.7619047619048</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.52031234</v>
+        <v>1.53116494</v>
       </c>
       <c r="AB16" t="n">
-        <v>1026</v>
+        <v>1070</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
@@ -6095,52 +6095,52 @@
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="AF16" t="n">
-        <v>76.379310344828</v>
+        <v>76.02627257799701</v>
       </c>
       <c r="AG16" t="n">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="AH16" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AI16" t="n">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AJ16" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>34.782608695652</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.461538461538</v>
+        <v>12.962962962963</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ16" t="n">
         <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU16" t="n">
         <v>4</v>
@@ -6161,31 +6161,31 @@
         <v>47.619047619048</v>
       </c>
       <c r="BA16" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BB16" t="n">
-        <v>55.440414507772</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BC16" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BD16" t="n">
-        <v>57.894736842105</v>
+        <v>57.664233576642</v>
       </c>
       <c r="BE16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF16" t="n">
-        <v>50</v>
+        <v>50.819672131148</v>
       </c>
       <c r="BG16" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="BH16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ16" t="n">
         <v>4</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>142.5</v>
+        <v>149.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA16" t="n">
         <v>6</v>
@@ -6245,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="CC16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CD16" t="n">
         <v>12</v>
@@ -6296,10 +6296,10 @@
         <v>21</v>
       </c>
       <c r="CT16" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CU16" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CV16" t="n">
         <v>30</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="DA16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DB16" t="n">
-        <v>71.111111111111</v>
+        <v>71.73913043478299</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="DG16" t="n">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>1597260</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9117647058824</v>
+        <v>6.9555555555556</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>1310</v>
+        <v>1400</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0.9161</v>
       </c>
       <c r="L18" t="n">
-        <v>1310</v>
+        <v>1400</v>
       </c>
       <c r="M18" t="n">
         <v>6</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.29533467</v>
+        <v>0.33196617</v>
       </c>
       <c r="AB18" t="n">
-        <v>879</v>
+        <v>936</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6807,52 +6807,52 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="AF18" t="n">
-        <v>89.589442815249</v>
+        <v>89.875173370319</v>
       </c>
       <c r="AG18" t="n">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="AH18" t="n">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="AI18" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AJ18" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL18" t="n">
-        <v>66.666666666667</v>
+        <v>67.1875</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6867,37 +6867,37 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>33.333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BA18" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="BB18" t="n">
-        <v>59.848484848485</v>
+        <v>60.992907801418</v>
       </c>
       <c r="BC18" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BD18" t="n">
-        <v>59.770114942529</v>
+        <v>60.63829787234</v>
       </c>
       <c r="BE18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BF18" t="n">
-        <v>60</v>
+        <v>61.702127659574</v>
       </c>
       <c r="BG18" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BH18" t="n">
         <v>22</v>
       </c>
       <c r="BI18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BJ18" t="n">
         <v>3</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO18" t="n">
         <v>24</v>
@@ -6921,16 +6921,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>117.5</v>
+        <v>125.2</v>
       </c>
       <c r="BR18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6957,10 @@
         <v>3</v>
       </c>
       <c r="CC18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CD18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7005,13 +7005,13 @@
         <v>5</v>
       </c>
       <c r="CS18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CV18" t="n">
         <v>18</v>
@@ -7026,13 +7026,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="DA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB18" t="n">
-        <v>60</v>
+        <v>59.459459459459</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,16 +7044,16 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="DG18" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="DH18" t="n">
         <v>2</v>
       </c>
       <c r="DI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DJ18" t="n">
         <v>2192111</v>
@@ -7441,19 +7441,19 @@
         <v>891651</v>
       </c>
       <c r="E20" t="n">
-        <v>6.88125</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
         <v>16</v>
       </c>
-      <c r="G20" t="n">
-        <v>15</v>
-      </c>
       <c r="H20" t="n">
-        <v>1386</v>
+        <v>1476</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -7507,40 +7507,40 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.66025326</v>
+        <v>0.78340326</v>
       </c>
       <c r="AB20" t="n">
-        <v>1088</v>
+        <v>1149</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="AF20" t="n">
-        <v>85.228604923798</v>
+        <v>84.85523385300699</v>
       </c>
       <c r="AG20" t="n">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="AH20" t="n">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="AI20" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AJ20" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL20" t="n">
-        <v>51.260504201681</v>
+        <v>51.239669421488</v>
       </c>
       <c r="AM20" t="n">
         <v>4</v>
@@ -7549,22 +7549,22 @@
         <v>66.666666666667</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AS20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7585,31 +7585,31 @@
         <v>85.71428571428601</v>
       </c>
       <c r="BA20" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>62.328767123288</v>
+        <v>63.522012578616</v>
       </c>
       <c r="BC20" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BD20" t="n">
-        <v>63.013698630137</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE20" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BF20" t="n">
-        <v>61.643835616438</v>
+        <v>63.414634146341</v>
       </c>
       <c r="BG20" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BH20" t="n">
         <v>21</v>
       </c>
       <c r="BI20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO20" t="n">
         <v>24</v>
@@ -7633,16 +7633,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>110.1</v>
+        <v>119</v>
       </c>
       <c r="BR20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY20" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="CC20" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CD20" t="n">
         <v>35</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS20" t="n">
         <v>7</v>
@@ -7723,10 +7723,10 @@
         <v>6</v>
       </c>
       <c r="CU20" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CV20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="DA20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB20" t="n">
-        <v>55.555555555556</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC20" t="n">
         <v>1</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="DG20" t="n">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="DH20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="DJ20" t="n">
         <v>2163336</v>
@@ -7797,130 +7797,130 @@
         <v>798926</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6066666666667</v>
+        <v>6.65</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>850</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4055</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.71596824</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>637</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>378</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>80.597014925373</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>469</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>229</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>149</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO21" t="n">
         <v>8</v>
       </c>
-      <c r="H21" t="n">
-        <v>760</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3232</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.6075862400000001</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>576</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>342</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>80.660377358491</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>424</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>206</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>136</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34.48275862069</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7</v>
-      </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AS21" t="n">
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7941,25 +7941,25 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB21" t="n">
+        <v>52.173913043478</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD21" t="n">
         <v>53.846153846154</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>20</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>52.631578947368</v>
       </c>
       <c r="BE21" t="n">
         <v>15</v>
       </c>
       <c r="BF21" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="BG21" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="BH21" t="n">
         <v>9</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO21" t="n">
         <v>16</v>
@@ -7989,22 +7989,22 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>99.09999999999999</v>
+        <v>106.4</v>
       </c>
       <c r="BR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA21" t="n">
         <v>3</v>
@@ -8025,7 +8025,7 @@
         <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD21" t="n">
         <v>10</v>
@@ -8076,13 +8076,13 @@
         <v>2</v>
       </c>
       <c r="CT21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="CU21" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CV21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DA21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB21" t="n">
-        <v>76.92307692307701</v>
+        <v>78.571428571429</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="DG21" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="DH21" t="n">
         <v>3</v>
       </c>
       <c r="DI21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DJ21" t="n">
         <v>2163328</v>
@@ -8865,16 +8865,16 @@
         <v>822564</v>
       </c>
       <c r="E24" t="n">
-        <v>6.8619047619048</v>
+        <v>6.8863636363636</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.15304073</v>
+        <v>0.15602844</v>
       </c>
       <c r="AB24" t="n">
-        <v>1069</v>
+        <v>1133</v>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
@@ -8941,28 +8941,28 @@
         <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="AF24" t="n">
-        <v>69.864559819413</v>
+        <v>69.532908704883</v>
       </c>
       <c r="AG24" t="n">
-        <v>886</v>
+        <v>942</v>
       </c>
       <c r="AH24" t="n">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="AI24" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AL24" t="n">
-        <v>39.220183486239</v>
+        <v>38.394793926247</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8980,13 +8980,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9037,16 +9037,16 @@
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO24" t="n">
         <v>39</v>
@@ -9055,16 +9055,16 @@
         <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>144.1</v>
+        <v>151.5</v>
       </c>
       <c r="BR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="CD24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9106,10 +9106,10 @@
         <v>7</v>
       </c>
       <c r="CH24" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CJ24" t="n">
         <v>36</v>
@@ -9118,16 +9118,16 @@
         <v>3</v>
       </c>
       <c r="CL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>15</v>
+      </c>
+      <c r="CO24" t="n">
         <v>11</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>14</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>10</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="DA24" t="n">
         <v>1</v>
@@ -9178,13 +9178,13 @@
         <v>9</v>
       </c>
       <c r="DF24" t="n">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="DG24" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="DH24" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-2.9609</v>
+        <v>-2.2621</v>
       </c>
     </row>
   </sheetData>
